--- a/export_result.xlsx
+++ b/export_result.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,6 @@
         <is>
           <t>similarity</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM ROSCA VERMELHA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM ROSCA VERMELHA</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,19 +505,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L  6 MM  COMPRIMENTO 65 MM  OXIDADO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM ROSCA VERMELHA</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L DIMENSAO 6 MM CURTA COMPRIMENTO 65 MM ACABAMENTO OXIDADO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77.78</v>
+        <v>81.25</v>
       </c>
       <c r="E2" t="n">
-        <v>76.92</v>
+        <v>77.45</v>
       </c>
     </row>
     <row r="3">
@@ -547,19 +526,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L  6 MM  COMPRIMENTO 65 MM  OXIDADO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ABRACADEIRA TIPO D DIMENSAO 3/4 POLEGADA ACO ELETRODUTO COM CUNHA</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L DIMENSAO 4 MM CURTA COMPRIMENTO 65 MM ACABAMENTO OXIDADO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30.77</v>
+        <v>70.59</v>
       </c>
       <c r="E3" t="n">
-        <v>76.79000000000001</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="4">
@@ -568,19 +547,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L  6 MM  COMPRIMENTO 65 MM  OXIDADO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM ROSCA VERMELHA</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L DIMENSAO 5 MM CURTA COMPRIMENTO 65 MM ACABAMENTO OXIDADO</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66.67</v>
+        <v>70.59</v>
       </c>
       <c r="E4" t="n">
-        <v>70.77</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="5">
@@ -589,19 +568,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L  6 MM  COMPRIMENTO 65 MM  OXIDADO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ABRACADEIRA TIPO D DIMENSAO 3/4 POLEGADA ACO ELETRODUTO COM CUNHA</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L DIMENSAO 16 MM CURTA COMPRIMENTO 65 MM</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33.33</v>
+        <v>68.75</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="6">
@@ -610,19 +589,986 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L  6 MM  COMPRIMENTO 65 MM  OXIDADO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ABRACADEIRA, TIPO C, ALUMINIO, DIAMETRO 1 POLEGADA</t>
+          <t>CHAVE ALLEN ABAULADA ACO CROMO VANADIO CABO L DIMENSAO 17 MM CURTA COMPRIMENTO 65 MM</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22.22</v>
+        <v>68.75</v>
       </c>
       <c r="E6" t="n">
-        <v>65.79000000000001</v>
+        <v>71.43000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA AJUSTAVEL D 51-64 MM ACO CARBONO RECARTILHADA / R SEM-FIM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA AJUSTAVEL DIMENSAO 51-64 MM ACO CARBONO RECARTILHADA / ROSCA SEM-FIM</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENÇÃO ACO CARBONO 25 X 26,9 MM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENCAO ACO CARBONO DIMENSAO 25 X 26,9 MM</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="E8" t="n">
+        <v>78.84999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENÇÃO ACO CARBONO 25 X 26,9 MM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENCAO ACO CARBONO DIMENSAO 20 X 18,5 MM</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>71.15000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENÇÃO ACO CARBONO 25 X 26,9 MM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENCAO ACO CARBONO DIMENSAO 45 X 48,5 MM</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.15000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENÇÃO ACO CARBONO 25 X 26,9 MM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ANEL PARA RETENCAO ACO CARBONO DIMENSAO 62 X 66,2 MM</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>71.15000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARB SAE 1045 TIPO PTI WRA R10 DIA 190 MM COMPRIM 181 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARBONO SAE 1045 TIPO PTI WRAPFLEX R10 DIAMETRO 190 MM COMPRIMENTO 181 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARB SAE 1045 TIPO PTI WRA R10 DIA 190 MM COMPRIM 181 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARBONO SAE 1045 TIPO FALK WRAPFLEX R10 DIAMETRO 132,1 MM COMPRIMENTO 122 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARB SAE 1045 TIPO PTI WRA R10 DIA 190 MM COMPRIM 181 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARBONO SAE 1045 TIPO FALK WRAPFLEX R10 DIAMETRO 152,6 MM COMPRIMENTO 152 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="E14" t="n">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARB SAE 1045 TIPO PTI WRA R10 DIA 190 MM COMPRIM 181 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARBONO SAE 1045 TIPO FALK WRAPFLEX R10 DIAMETRO 239 MM COMPRIMENTO 215 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74.23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARB SAE 1045 TIPO PTI WRA R10 DIA 190 MM COMPRIM 181 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO CARBONO SAE 1045 TIPO FALK WRAPFLEX R10 DIAMETRO 94,5 MM COMPRIMENTO 92 MM FREQUENCIA 60 HZ</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="E16" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA; TIPO AJUSt; D 9 X 0,7 MM X 7/8 - 1.1/4 POL; ACO INOXIDAVEL; COM PARAF</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA; TIPO AJUSTAVEL; DIMENSAO 9 X 0,7 MM X 7/8 - 1.1/4 POL; ACO INOXIDAVEL; COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" t="n">
+        <v>80.90000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA; TIPO AJUSt; D 9 X 0,7 MM X 7/8 - 1.1/4 POL; ACO INOXIDAVEL; COM PARAF</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA; TIPO AJUSTAVEL; DIMENSAO 9 X 0,6 MM X 7/16 - 5/8 POL; ACO INOXIDAVEL; COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>73.86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA; TIPO AJUSt; D 9 X 0,7 MM X 7/8 - 1.1/4 POL; ACO INOXIDAVEL; COM PARAF</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA; TIPO AJUSTAVEL; DIMENSAO 9 X 0,6 MM X 1/2 - 3/4 POL; ACO INOXIDAVEL; COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA; TIPO AJUSt; D 9 X 0,7 MM X 7/8 - 1.1/4 POL; ACO INOXIDAVEL; COM PARAF</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA; TIPO AJUSTAVEL; DIMENSAO 14,6 X 0,6 MM X 8 - 8.3/4 POL; ACO INOXIDAVEL; COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="E20" t="n">
+        <v>71.11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA; TIPO AJUSt; D 9 X 0,7 MM X 7/8 - 1.1/4 POL; ACO INOXIDAVEL; COM PARAF</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA; TIPO AJUSTAVEL; DIMENSAO 14,6 X 0,6 MM X 2.3/4 - 3.1/2 POL; ACO INOXIDAVEL; COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="E21" t="n">
+        <v>70.20999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABRACADEIRA AJUSTÁVEL LARGURA 14,5 MM RECARTILHADA ACO ZINCADO DIAMETRO 2-2.1/2 POLEGADAS
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA AJUSTAVEL TIPO RECARTILHADA ACO ZINCADO LARGURA 14,5 MM DIAMETRO 2-2.1/2 POLEGADAS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>76.92</v>
+      </c>
+      <c r="E22" t="n">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COL, POLIC DE VINILA - PVC, DIAMETRO 1 POLG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COLAR, POLICLORETO DE VINILA - PVC, DIAMETRO 1 POLEGADA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COL, POLIC DE VINILA - PVC, DIAMETRO 1 POLG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COPO, POLICLORETO DE VINILA - PVC, DIAMETRO 1 POLEGADA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>79.66</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COL, POLIC DE VINILA - PVC, DIAMETRO 1 POLG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO C, POLICLORETO DE VINILA - PVC, DIAMETRO 1 POLEGADA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75.93000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COL, POLIC DE VINILA - PVC, DIAMETRO 1 POLG</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COLAR, POLICLORETO DE VINILA - PVC, DIAMETRO 1/2 POLEGADA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="E26" t="n">
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COL, POLIC DE VINILA - PVC, DIAMETRO 1 POLG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COPO, POLICLORETO DE VINILA - PVC, DIAMETRO 1/2 POLEGADA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="E27" t="n">
+        <v>77.05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANG DIMENSAO 76-95 X 32 ACO CARBONO ZIN Bran</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANGOTE DIMENSAO 76-95 X 32 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="E28" t="n">
+        <v>83.09999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANG DIMENSAO 76-95 X 32 ACO CARBONO ZIN Bran</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANGOTE DIMENSAO 86-94 X 32 MM  ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="E29" t="n">
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANG DIMENSAO 76-95 X 32 ACO CARBONO ZIN Bran</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 76-95 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="E30" t="n">
+        <v>73.97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANG DIMENSAO 76-95 X 32 ACO CARBONO ZIN Bran</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 51-64 X 14MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANG DIMENSAO 76-95 X 32 ACO CARBONO ZIN Bran</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 13-19 X 8 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="E32" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REG D 89-108 X 14 MM ACO CARBONO ZINC BRANCO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 89-108 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>60</v>
+      </c>
+      <c r="E33" t="n">
+        <v>75.68000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REG D 89-108 X 14 MM ACO CARBONO ZINC BRANCO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 25-38 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REG D 89-108 X 14 MM ACO CARBONO ZINC BRANCO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 64-83 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REG D 89-108 X 14 MM ACO CARBONO ZINC BRANCO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 22-32 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REG D 89-108 X 14 MM ACO CARBONO ZINC BRANCO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 38-51 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA NYL, TIPO AMAR, DIMENSAO 530 X 9,5 MM</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA NYLON, TIPO AMARRACAO, DIMENSAO 530 X 9,5 MM</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>84.91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA NYL, TIPO AMAR, DIMENSAO 530 X 9,5 MM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA NYLON, TIPO AMARRACAO, DIMENSAO 100 X 2,5 MM</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="E39" t="n">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA NYL, TIPO AMAR, DIMENSAO 530 X 9,5 MM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA NYLON, TIPO AMARRACAO, DIMENSAO 280 X 4,5 MM</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="E40" t="n">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA NYL, TIPO AMAR, DIMENSAO 530 X 9,5 MM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA NYLON, TIPO AMARRACAO, DIMENSAO 1,08 X 2,5 MM</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="E41" t="n">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA NYL, TIPO AMAR, DIMENSAO 530 X 9,5 MM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA NYLON, TIPO AMARRACAO, DIMENSAO 140 X 3,6 MM</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="E42" t="n">
+        <v>77.36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ADAPTADOR D 3 4 POL POLIWETZEL APIG15 BEGE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ADAPTADOR DIMENSAO 3 4 POLEGADAS POLIWETZEL APIG15 BEGE</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>60</v>
+      </c>
+      <c r="E43" t="n">
+        <v>72.73</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARB GALVAN, DIAMETRO 4 POLE, COM PAR</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARBONO GALVANIZADO, DIAMETRO 4 POLEGADAS, COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="E44" t="n">
+        <v>71.88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARB GALVAN, DIAMETRO 4 POLE, COM PAR</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO C, ACO CARBONO GALVANIZADO, DIAMETRO 4 POLEGADAS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="E45" t="n">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARB GALVAN, DIAMETRO 4 POLE, COM PAR</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARBONO GALVANIZADO, DIAMETRO 1 POLEGADA, COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>71.43000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARB GALVAN, DIAMETRO 4 POLE, COM PAR</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARBONO GALVANIZADO, DIAMETRO 2 POLEGADAS, COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARB GALVAN, DIAMETRO 4 POLE, COM PAR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO D, ACO CARBONO GALVANIZADO, DIAMETRO 3 POLEGADAS, COM PARAFUSO</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO INOXI 316 CAMLOC CM D 3 4 POL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO INOXIDAVEL 316 CAMLOCK CM DIAMETRO 3 4 POLEGADAS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="E49" t="n">
+        <v>75.44</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO INOXI 316 CAMLOC CM D 3 4 POL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ACO INOXIDAVEL 316 CAMLOCK CM DIAMETRO 2 POLEGADAS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="E50" t="n">
+        <v>74.55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA; TIP BLOQ; DIM 4,6 X 360 MM; ACO INOX; COM DISP DE BOLA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA; TIPO BLOQUEIO; DIMENSAO 4,6 X 360 MM; ACO INOXIDAVEL; COM DISPOSITIVO DE BOLA</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>40</v>
+      </c>
+      <c r="E51" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ABRAÇADEIRA; TIP BLOQ; DIM 4,6 X 360 MM; ACO INOX; COM DISP DE BOLA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA; TIPO BLOQUEIO; DIMENSAO 4,6 X 200 MM; ACO INOXIDAVEL; COM DISPOSITIVO DE BOLA</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="E52" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +1582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,19 +1618,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC</t>
+          <t>ABRAÇADEIRA TIPO DIMENSAO 19-27 X 14 RECARTILHADA / ROSCA S-FIM BRANCO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM ROSCA VERMELHA</t>
+          <t>ABRACADEIRA TIPO AJUSTAVEL DIMENSAO 19-27 X 14 MM ACO CARBONO ZINCADO  RECARTILHADA / ROSCA SEM-FIM BRANCO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55.56</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>53.85</v>
+        <v>63.37</v>
       </c>
     </row>
     <row r="3">
@@ -693,19 +1639,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC</t>
+          <t>ABRAÇADEIRA TIPO DIMENSAO 19-27 X 14 RECARTILHADA / ROSCA S-FIM BRANCO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADAPTADOR PVC DIMENSAO 1 POLEGADA POLIWETZEL APIG20</t>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 89-108 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>27.78</v>
       </c>
       <c r="E3" t="n">
-        <v>49.02</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="4">
@@ -714,19 +1660,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC</t>
+          <t>ABRAÇADEIRA TIPO DIMENSAO 19-27 X 14 RECARTILHADA / ROSCA S-FIM BRANCO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ABRACADEIRA TIPO U DIMENSAO 1 POLEGADA ACO CARBONO GALVANIZADO</t>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 152-171 X 14 MM  ACO CARBONO ZINCADO BRANCO</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>27.78</v>
       </c>
       <c r="E4" t="n">
-        <v>55.93</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="5">
@@ -735,19 +1681,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC</t>
+          <t>ABRAÇADEIRA TIPO DIMENSAO 19-27 X 14 RECARTILHADA / ROSCA S-FIM BRANCO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADAPTADOR DIMENSAO 1 POLEGADA POLIWETZEL API20</t>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 22-32 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37.5</v>
+        <v>27.78</v>
       </c>
       <c r="E5" t="n">
-        <v>52.17</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="6">
@@ -756,19 +1702,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC</t>
+          <t>ABRAÇADEIRA TIPO DIMENSAO 19-27 X 14 RECARTILHADA / ROSCA S-FIM BRANCO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ABRACADEIRA AJUSTAVEL ACO GALVANIZADO DIMENSAO 1 1 4 POLEGADA</t>
+          <t>ABRACADEIRA TIPO REGULAVEL DIMENSAO 25-38 X 14 MM ACO CARBONO ZINCADO BRANCO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44.44</v>
+        <v>27.78</v>
       </c>
       <c r="E6" t="n">
-        <v>44.26</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="7">
@@ -777,19 +1723,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1</t>
+          <t xml:space="preserve">ABRAÇADEIRA 2 POLEGADAS, AÇO CARBONO ZINCADO, TIPO ROSCA SEM FIM, FIX DE MANGUEIRAS
+</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABRACADEIRA T DIMENSAO 35 A 45 MM ACO HPF</t>
+          <t>ABRACADEIRA, TIPO ROSCA SEM FIM, DIMENSAO 2 POLEGADAS, ACO CARBONO ZINCADO, FIXACAO DE MANGUEIRAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>58.82</v>
       </c>
       <c r="E7" t="n">
-        <v>53.85</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="8">
@@ -798,19 +1745,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1</t>
+          <t xml:space="preserve">ABRAÇADEIRA 2 POLEGADAS, AÇO CARBONO ZINCADO, TIPO ROSCA SEM FIM, FIX DE MANGUEIRAS
+</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ABRACADEIRA AJUSTAVEL ACO GALVANIZADO DIMENSAO 1 1 4 POLEGADA</t>
+          <t>ABRACADEIRA, TIPO ROSCA SEM FIM, DIMENSAO 1/2 POLEGADAS, ACO CARBONO ZINCADO, FIXACAO DE MANGUEIRAS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>36.07</v>
+        <v>46.24</v>
       </c>
     </row>
     <row r="9">
@@ -819,19 +1767,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1</t>
+          <t xml:space="preserve">ABRAÇADEIRA 2 POLEGADAS, AÇO CARBONO ZINCADO, TIPO ROSCA SEM FIM, FIX DE MANGUEIRAS
+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ABRACADEIRA TIPO U DIMENSAO 1 POLEGADA ACO CARBONO GALVANIZADO</t>
+          <t>ABRACADEIRA, TIPO GOTA, ACO CARBONO ZINCADO, DIAMETRO 150 MM</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33.33</v>
+        <v>15.79</v>
       </c>
       <c r="E9" t="n">
-        <v>37.29</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="10">
@@ -840,19 +1789,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1</t>
+          <t xml:space="preserve">ABRAÇADEIRA 2 POLEGADAS, AÇO CARBONO ZINCADO, TIPO ROSCA SEM FIM, FIX DE MANGUEIRAS
+</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ABRACADEIRA NYLON DIMENSAO 100 X 2,5 MM BRANCO</t>
+          <t>ABRACADEIRA, TIPO GOTA, ACO CARBONO ZINCADO, DIAMETRO 1 POLEGADA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22.22</v>
+        <v>15.79</v>
       </c>
       <c r="E10" t="n">
-        <v>47.83</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="11">
@@ -861,19 +1811,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1</t>
+          <t xml:space="preserve">ABRAÇADEIRA 2 POLEGADAS, AÇO CARBONO ZINCADO, TIPO ROSCA SEM FIM, FIX DE MANGUEIRAS
+</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 1 POLEGADA PVC ELETRODUTO SEM ROSCA VERMELHA</t>
+          <t>ABRACADEIRA, TIPO MANGOTE, ACO CARBONO ZINCADO, DIAMETRO 4 POLEGADAS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33.33</v>
+        <v>15.79</v>
       </c>
       <c r="E11" t="n">
-        <v>33.85</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="12">
@@ -882,19 +1833,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO</t>
+          <t xml:space="preserve">CHAVE COMBINADA </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ABRACADEIRA T DIMENSAO 35 A 45 MM ACO HPF</t>
+          <t>CHAVE COMBINADA BITOLAS 9 MM</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22.22</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>51.28</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="13">
@@ -903,19 +1854,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO</t>
+          <t xml:space="preserve">CHAVE COMBINADA </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ABRACADEIRA NYLON DIMENSAO 100 X 2,5 MM BRANCO</t>
+          <t>CHAVE COMBINADA BITOLAS 11 MM</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
-        <v>43.48</v>
+        <v>55.17</v>
       </c>
     </row>
     <row r="14">
@@ -924,19 +1875,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO</t>
+          <t xml:space="preserve">CHAVE COMBINADA </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO 2 5 X 200 MM NYLON NATURAL</t>
+          <t>CHAVE COMBINADA BITOLAS 12 MM</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22.22</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>42.55</v>
+        <v>55.17</v>
       </c>
     </row>
     <row r="15">
@@ -945,19 +1896,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO</t>
+          <t xml:space="preserve">CHAVE COMBINADA </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ABRACADEIRA STANDARD DIMENSAO 30 MM POLIPROPILENO GRUPO 5</t>
+          <t>CHAVE COMBINADA BITOLAS 14 MM</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>35.09</v>
+        <v>55.17</v>
       </c>
     </row>
     <row r="16">
@@ -966,19 +1917,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ABRACADEIRA DIMENSAO</t>
+          <t xml:space="preserve">CHAVE COMBINADA </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ABRACADEIRA NYLON, TIPO AMARRACAO, DIMENSAO 100 X 2,5 MM</t>
+          <t>CHAVE COMBINADA BITOLAS 15 MM</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22.22</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>37.74</v>
+        <v>55.17</v>
       </c>
     </row>
     <row r="17">
@@ -987,19 +1938,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ABRACADEIRA</t>
+          <t xml:space="preserve">AGUA S/ GAS GARRAFA 200ML
+</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LOCACAO, DE CADEIRAS</t>
+          <t>AGUA MINERAL, COM GAS, GARRAFA 300 ML</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>47.06</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="18">
@@ -1008,19 +1960,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ABRACADEIRA</t>
+          <t xml:space="preserve">AGUA S/ GAS GARRAFA 200ML
+</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ABRACADEIRA T DIMENSAO 35 A 45 MM ACO HPF</t>
+          <t>AGUA MINERAL, COM GAS, GARRAFA 500 ML</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.11</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>28.21</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="19">
@@ -1029,19 +1982,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ABRACADEIRA</t>
+          <t xml:space="preserve">AGUA S/ GAS GARRAFA 200ML
+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ABRACADEIRA NYLON TIPO AMARRACAO DIMENSOES 200 MM</t>
+          <t>AGUA MINERAL, SEM GAS, GARRAFA 200 ML</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14.29</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>23.91</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="20">
@@ -1050,19 +2004,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ABRACADEIRA</t>
+          <t xml:space="preserve">AGUA S/ GAS GARRAFA 200ML
+</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ABRACADEIRA NYLON TIPO AMARRACAO DIMENSOES 200X4 MM</t>
+          <t>AGUA MINERAL, COM GAS, GARRAFA 150 ML</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14.29</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>22.92</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="21">
@@ -1071,19 +2026,555 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ABRACADEIRA</t>
+          <t xml:space="preserve">AGUA S/ GAS GARRAFA 200ML
+</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ABRACADEIRA NYLON DIMENSAO 100 X 2,5 MM BRANCO</t>
+          <t>AGUA MINERAL, SEM GAS, GARRAFA 300 ML</t>
         </is>
       </c>
       <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>59.46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADAPTADOR  VGA CONECTOR HDMI
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ADAPTADOR, PARA VGA(FEMEA), CONECTOR HDMI (MACHO)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADAPTADOR  VGA CONECTOR HDMI
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CABO DE DADOS CONECTOR RJ-45</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>12.5</v>
       </c>
-      <c r="E21" t="n">
-        <v>23.91</v>
+      <c r="E23" t="n">
+        <v>44.83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADAPTADOR  VGA CONECTOR HDMI
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ADAPTADOR WIFI 2 4GHZ INDOOR</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>41.38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADAPTADOR  VGA CONECTOR HDMI
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ADAPTADOR HIDRAULICO DIMENSOES 16X19 MM</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>41.03</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADAPTADOR  VGA CONECTOR HDMI
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CONVERSOR; VIDEO; HDMI X VGA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORREIA TRAPEZOIDAL  BORRACHA LONADA CODIGO C270
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CORREIA TRAPEZOIDAL TIPO LISA PERFIL C COMPRIMENTO 6914 MM ALTURA 14 MM LARGURA 22 MM BORRACHA LONADA CODIGO C270</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="E27" t="n">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORREIA TRAPEZOIDAL  BORRACHA LONADA CODIGO C270
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CORREIA TRAPEZOIDAL TIPO LISA PERFIL E COMPRIMENTO 9700 MM BORRACHA VULCANIZADA CODIGO E9700</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="E28" t="n">
+        <v>49.43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORREIA TRAPEZOIDAL  BORRACHA LONADA CODIGO C270
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CORREIA TRAPEZOIDAL LISA PERFIL C COMPRIMENTO 2750 MM ALTURA 14 MM LARGURA 22 MM BORRACHA LONADA CODIGO C 275</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="E29" t="n">
+        <v>40.78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORREIA TRAPEZOIDAL  BORRACHA LONADA CODIGO C270
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CORREIA TRAPEZOIDAL TIPO LISA PERFIL C COMPRIMENTO 6916 MM ALTURA 14 MM LARGURA 22 MM BORRACHA LONADA CODIGO 3C-270</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="E30" t="n">
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORREIA TRAPEZOIDAL  BORRACHA LONADA CODIGO C270
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CORREIA TRAPEZOIDAL TIPO LISA PERFIL C COMPRIMENTO 5446 MM ALTURA 14 MM LARGURA 22 MM BORRACHA LONADA CODIGO C210</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="E31" t="n">
+        <v>41.51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>COLA  14 KG NORCOLA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>COLA; LIQUIDA; EMBALAGEM 14 KG; NORCOLA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>48.72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>COLA  14 KG NORCOLA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>COLA PISO VINILICO EMBALAGEM 18 KG</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="n">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>COLA  14 KG NORCOLA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>COLA; LIQUIDA; EMBALAGEM 2,8 KG; NORCOLA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E34" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>COLA  14 KG NORCOLA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>COLA CONTATO GALAO 3 5 KG</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>COLA  14 KG NORCOLA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>COLA CIMENTO EMBALAGEM 1 KG EXTRA FORTE</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AMORTECEDOR HIDRAULICO MODELO YSR-12-12-C</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ADAPTADOR HIDRAULICO DIMENSOES 16X19 MM</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>53.66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AMORTECEDOR HIDRAULICO MODELO YSR-12-12-C</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TAMPA DO MOTOR TRASEIRA MODELO WEG SM 132</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E38" t="n">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AMORTECEDOR HIDRAULICO MODELO YSR-12-12-C</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TAMPA DO MOTOR DEFLETORA MODELO WEG 112</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>41.46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AMORTECEDOR HIDRAULICO MODELO YSR-12-12-C</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TAMPA DO MOTOR TRASEIRA MODELO WEG 71</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>41.46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AMORTECEDOR HIDRAULICO MODELO YSR-12-12-C</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>COMPRESSOR MODELO SHW73TC4-U</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="E41" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA Tip AJUSTAVEL D. 3/4 X 1.1/2 P X 14,5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA AJUSTAVEL ACO INOXIDAVEL DIMENSAO 114 X 133 MM</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>44.83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA Tip AJUSTAVEL D. 3/4 X 1.1/2 P X 14,5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO AJUSTAVEL DIMENSAO 3/8 X 1/2 POLEGADAS X 9 MM ACO INOXIDAVEL</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="E43" t="n">
+        <v>45.95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA Tip AJUSTAVEL D. 3/4 X 1.1/2 P X 14,5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO AJUSTAVEL DIMENSAO 32-44 X 14 MM ACO CARBONO GALVANIZADO</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="E44" t="n">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA Tip AJUSTAVEL D. 3/4 X 1.1/2 P X 14,5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA AJUSTAVEL TIPO FLEXIL ACO INOXIDAVEL DIAMETRO 12-16 MM</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>48.21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA Tip AJUSTAVEL D. 3/4 X 1.1/2 P X 14,5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO AJUSTAVEL DIMENSAO 3/4 X 1.1/16 POLEGADAS X 14,5 MM ACO CARBONO ZINCADO RECARTILHADA / ROSCA SEM-FIM</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="E46" t="n">
+        <v>36.61</v>
       </c>
     </row>
   </sheetData>

--- a/export_result.xlsx
+++ b/export_result.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,156 @@
         <is>
           <t>similarity</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COPO, ACO CARBONO GALVANIZADO, DIAMETRO 1.1/2 POLEGADA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA, TIPO COPO, ACO CARBONO GALVANIZADO, DIAMETRO 1.1/2 POLEGADA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALICATE BICO RETO ACO CROMO VANADIO TAMANHO NOMINAL 6.1/2 POLEGADAS COM ISOLACAO EN60900 TIPO TELEFONE
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ALICATE BICO RETO ACO CROMO VANADIO TAMANHO NOMINAL 6.1/2 POLEGADAS COM ISOLACAO EN60900 TIPO TELEFONE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.95999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CURVA ELETRODUTO, ANGULO 90 GRAUS, POLICLORETO DE VINILA - PVC, CONEXAO ROSCAVEL 1.1/2 POLEGADA
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CURVA ELETRODUTO, ANGULO 90 GRAUS, POLICLORETO DE VINILA - PVC, CONEXAO ROSCAVEL 1.1/2 POLEGADA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>98.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BUJAO GALVANIZADO DIAMETRO 3/4 POLEGADAS BSP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BUJAO  GALVANIZADO DIAMETRO 3/4 POLEGADAS BSP</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>97.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANGOTE D. 61-69 X 20 X 1,55 MM ACO CARBONO TORQUE MAXIMO 300 KG/CM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ABRACADEIRA TIPO MANGOTE DIMENSAO 61-69 X 20 X 1,55 MM ACO CARBONO TORQUE MAXIMO 300 KG/CM</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BARRA BRONZE TM 23 DIAMETRO 5 POLEGADAS
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BARRA BRONZE REDONDA TM 23 DIAMETRO 5 POLEGADAS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CANTONEIRA  SUPORTE ABAS IGUAIS DIMENSAO 2 X 3/16 POLEGADAS X 500 X 400 MM ACO INOXIDAVEL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CANTONEIRA, TIPO SUPORTE, ABAS IGUAIS, DIMENSAO 2 X 3/16 POLEGADAS X 500 X 400 MM, ACO INOXIDAVEL, 3 FUROS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>86.41</v>
       </c>
     </row>
   </sheetData>
